--- a/forecast_summary_B09QNVD2SW.xlsx
+++ b/forecast_summary_B09QNVD2SW.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>3.225445125018536</v>
       </c>
       <c r="D2" t="n">
-        <v>3.225445126349137</v>
+        <v>3.225445126215507</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B660 AORUS MASTER DDR4</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>4.90221340450872</v>
       </c>
       <c r="D3" t="n">
-        <v>4.902213406007871</v>
+        <v>4.902213406069505</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B660 AORUS MASTER DDR4</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>4.558113064630551</v>
       </c>
       <c r="D4" t="n">
-        <v>4.558117555265897</v>
+        <v>4.558113066282064</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B660 AORUS MASTER DDR4</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>2.516178137876872</v>
       </c>
       <c r="D5" t="n">
-        <v>2.516188746948231</v>
+        <v>2.516179625775549</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B660 AORUS MASTER DDR4</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>0.3732919279390292</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3732966423961526</v>
+        <v>0.3732939595343435</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B660 AORUS MASTER DDR4</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-0.6334466296236683</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6334329446493617</v>
+        <v>-0.6334272316016479</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B660 AORUS MASTER DDR4</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-0.5397230502557876</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5396966846709047</v>
+        <v>-0.5396869446526819</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B660 AORUS MASTER DDR4</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-0.1491805880701379</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.149159231368943</v>
+        <v>-0.1491531002932661</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B660 AORUS MASTER DDR4</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>6.060869739672929e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>6.480821987408576e-05</v>
+        <v>6.55859808802136e-05</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B660 AORUS MASTER DDR4</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-0.007325628666452568</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.007323712397731635</v>
+        <v>-0.007324057230629011</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B660 AORUS MASTER DDR4</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>0.01841634855398146</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01841895258344018</v>
+        <v>0.01841914634205814</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B660 AORUS MASTER DDR4</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-0.1919549613808633</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1919309796632551</v>
+        <v>-0.1919333610971303</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B660 AORUS MASTER DDR4</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-1.182653903037664</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.182529823126491</v>
+        <v>-1.182529790293421</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B660 AORUS MASTER DDR4</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-2.991728280898743</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.991433500752708</v>
+        <v>-2.991438396831872</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B660 AORUS MASTER DDR4</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-4.713382457270707</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.71295262050126</v>
+        <v>-4.712961690965622</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B660 AORUS MASTER DDR4</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-5.092655150533443</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.092213603357653</v>
+        <v>-5.09221036605827</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B660 AORUS MASTER DDR4</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-3.72232923626039</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.722015050543147</v>
+        <v>-3.722008034748854</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B660 AORUS MASTER DDR4</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-1.583320867463982</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.583187322861447</v>
+        <v>-1.583185915966923</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B660 AORUS MASTER DDR4</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-0.1761111604950494</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1760966154802729</v>
+        <v>-0.1760961413462726</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B660 AORUS MASTER DDR4</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-0.02172641317583143</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.02172465140763792</v>
+        <v>-0.02172458925656568</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B660 AORUS MASTER DDR4</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
